--- a/Code/Results/Cases/Case_5_88/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_88/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.666481343168584</v>
+        <v>1.118015681109569</v>
       </c>
       <c r="C2">
-        <v>0.4985867169202152</v>
+        <v>0.3082411197244141</v>
       </c>
       <c r="D2">
-        <v>0.05193035735018015</v>
+        <v>0.03355238475187861</v>
       </c>
       <c r="E2">
-        <v>0.04640529431568829</v>
+        <v>0.1233058829017842</v>
       </c>
       <c r="F2">
-        <v>0.5467869316382661</v>
+        <v>0.8231263785664211</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1493074072374014</v>
+        <v>0.1891530951563141</v>
       </c>
       <c r="M2">
-        <v>0.4366145817680049</v>
+        <v>0.2361424816765947</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.595807192636755</v>
+        <v>2.871797905458948</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.316889970226043</v>
+        <v>1.012251070564901</v>
       </c>
       <c r="C3">
-        <v>0.4585040455185094</v>
+        <v>0.2946074768429412</v>
       </c>
       <c r="D3">
-        <v>0.04764330063004252</v>
+        <v>0.03206211263224645</v>
       </c>
       <c r="E3">
-        <v>0.0488174360286846</v>
+        <v>0.124723630836637</v>
       </c>
       <c r="F3">
-        <v>0.5142922647792503</v>
+        <v>0.8238021451527047</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1353423124513427</v>
+        <v>0.1865257311867481</v>
       </c>
       <c r="M3">
-        <v>0.3800842211968245</v>
+        <v>0.2199033853709622</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.539901605421534</v>
+        <v>2.890035906224853</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.102806115446583</v>
+        <v>0.9473682001214456</v>
       </c>
       <c r="C4">
-        <v>0.4339263167352954</v>
+        <v>0.2862065952481032</v>
       </c>
       <c r="D4">
-        <v>0.04501202424287953</v>
+        <v>0.0311432607357176</v>
       </c>
       <c r="E4">
-        <v>0.05037549729238511</v>
+        <v>0.125643821480906</v>
       </c>
       <c r="F4">
-        <v>0.4958101894637892</v>
+        <v>0.8248677082826745</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1269396682836188</v>
+        <v>0.1850045961093016</v>
       </c>
       <c r="M4">
-        <v>0.3455359921618353</v>
+        <v>0.2099848639771196</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.510505232469626</v>
+        <v>2.903466340057037</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.015670177869822</v>
+        <v>0.9209436966755788</v>
       </c>
       <c r="C5">
-        <v>0.4239158179188394</v>
+        <v>0.2827759353475017</v>
       </c>
       <c r="D5">
-        <v>0.04393969018916266</v>
+        <v>0.03076788752294846</v>
       </c>
       <c r="E5">
-        <v>0.05102948661983886</v>
+        <v>0.1260313135664947</v>
       </c>
       <c r="F5">
-        <v>0.4886259812920954</v>
+        <v>0.8254652868235866</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1235557009882626</v>
+        <v>0.1844079178932034</v>
       </c>
       <c r="M5">
-        <v>0.331491059062472</v>
+        <v>0.2059563668816935</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.499696197379706</v>
+        <v>2.90949973733305</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.001206611860482</v>
+        <v>0.9165569249604459</v>
       </c>
       <c r="C6">
-        <v>0.4222538024177993</v>
+        <v>0.2822058475786093</v>
       </c>
       <c r="D6">
-        <v>0.04376161708616877</v>
+        <v>0.03070550149033835</v>
       </c>
       <c r="E6">
-        <v>0.05113922425813933</v>
+        <v>0.1260964120891777</v>
       </c>
       <c r="F6">
-        <v>0.4874534033155697</v>
+        <v>0.8255743728934988</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1229961360558534</v>
+        <v>0.1843102422320513</v>
       </c>
       <c r="M6">
-        <v>0.3291607537727046</v>
+        <v>0.2052882526239443</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.497970083712659</v>
+        <v>2.9105353971635</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.101630592510219</v>
+        <v>0.9470117641438947</v>
       </c>
       <c r="C7">
-        <v>0.4337912949715417</v>
+        <v>0.2861603571142837</v>
       </c>
       <c r="D7">
-        <v>0.04499756304497993</v>
+        <v>0.03113820206615259</v>
       </c>
       <c r="E7">
-        <v>0.05038424040026079</v>
+        <v>0.1256489966780163</v>
       </c>
       <c r="F7">
-        <v>0.4957119226516653</v>
+        <v>0.824875106367891</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1268938721654536</v>
+        <v>0.1849964551176484</v>
       </c>
       <c r="M7">
-        <v>0.3453464494265432</v>
+        <v>0.209930479787964</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.510354808916304</v>
+        <v>2.903545440816259</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.54580117512495</v>
+        <v>1.081537041416539</v>
       </c>
       <c r="C8">
-        <v>0.4847572929658384</v>
+        <v>0.3035465653591132</v>
       </c>
       <c r="D8">
-        <v>0.050451773262985</v>
+        <v>0.03303934696928224</v>
       </c>
       <c r="E8">
-        <v>0.04722083917241016</v>
+        <v>0.123784417381288</v>
       </c>
       <c r="F8">
-        <v>0.5352639773775039</v>
+        <v>0.8232241865317249</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1444546436399747</v>
+        <v>0.1882280939913983</v>
       </c>
       <c r="M8">
-        <v>0.4170850627002309</v>
+        <v>0.2305325005613525</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.575464775108884</v>
+        <v>2.877622509305354</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.423175338013777</v>
+        <v>1.345743109301338</v>
       </c>
       <c r="C9">
-        <v>0.5851281128013568</v>
+        <v>0.3373952499985364</v>
       </c>
       <c r="D9">
-        <v>0.06117158615834484</v>
+        <v>0.03673620094449603</v>
       </c>
       <c r="E9">
-        <v>0.0416421352674885</v>
+        <v>0.1205216274595068</v>
       </c>
       <c r="F9">
-        <v>0.6255538646127974</v>
+        <v>0.8251620350377564</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1804048403162</v>
+        <v>0.1952945804903692</v>
       </c>
       <c r="M9">
-        <v>0.5593869608952673</v>
+        <v>0.2713410357480726</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.745594612642009</v>
+        <v>2.844543455190006</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.074506243356041</v>
+        <v>1.540053577822903</v>
       </c>
       <c r="C10">
-        <v>0.6593852616824165</v>
+        <v>0.3621040387105836</v>
       </c>
       <c r="D10">
-        <v>0.06908768472477789</v>
+        <v>0.03943215737670869</v>
       </c>
       <c r="E10">
-        <v>0.03794428661155425</v>
+        <v>0.118363539648797</v>
       </c>
       <c r="F10">
-        <v>0.7012372336828463</v>
+        <v>0.8297602121856897</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2079641194722797</v>
+        <v>0.2009299290899378</v>
       </c>
       <c r="M10">
-        <v>0.6654437525394741</v>
+        <v>0.3015652178322341</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.901428681267845</v>
+        <v>2.831128854499269</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.372968492332916</v>
+        <v>1.628484986013518</v>
       </c>
       <c r="C11">
-        <v>0.6933414532410893</v>
+        <v>0.3733080582367734</v>
       </c>
       <c r="D11">
-        <v>0.07270403405990322</v>
+        <v>0.04065404735843003</v>
       </c>
       <c r="E11">
-        <v>0.03635380299195135</v>
+        <v>0.117433493432773</v>
       </c>
       <c r="F11">
-        <v>0.7380794755767681</v>
+        <v>0.8325456133071754</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2208045870208508</v>
+        <v>0.203589771150817</v>
       </c>
       <c r="M11">
-        <v>0.7141451805562937</v>
+        <v>0.3153663956591686</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.98021428690285</v>
+        <v>2.827404545918114</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.486362280432672</v>
+        <v>1.661976073157291</v>
       </c>
       <c r="C12">
-        <v>0.7062307489270836</v>
+        <v>0.3775453212936384</v>
       </c>
       <c r="D12">
-        <v>0.07407622099434974</v>
+        <v>0.04111607394087713</v>
       </c>
       <c r="E12">
-        <v>0.03576514388631657</v>
+        <v>0.1170887276306282</v>
       </c>
       <c r="F12">
-        <v>0.7524123287704043</v>
+        <v>0.8337004295917723</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2257154484433528</v>
+        <v>0.2046108018384984</v>
       </c>
       <c r="M12">
-        <v>0.7326639402542057</v>
+        <v>0.3205998604776923</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.011292386128019</v>
+        <v>2.826337285004115</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.461923303648462</v>
+        <v>1.654763012999013</v>
       </c>
       <c r="C13">
-        <v>0.7034533450038509</v>
+        <v>0.3766329976444922</v>
       </c>
       <c r="D13">
-        <v>0.07378056404977684</v>
+        <v>0.04101659877743913</v>
       </c>
       <c r="E13">
-        <v>0.03589130899205206</v>
+        <v>0.1171626491358583</v>
       </c>
       <c r="F13">
-        <v>0.749307947017968</v>
+        <v>0.8334472649934241</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2246555709920415</v>
+        <v>0.2043902912210456</v>
       </c>
       <c r="M13">
-        <v>0.7286720016604207</v>
+        <v>0.3194724209483653</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.004542028095813</v>
+        <v>2.826551863985969</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.382289633142136</v>
+        <v>1.631240245745175</v>
       </c>
       <c r="C14">
-        <v>0.6944012124467633</v>
+        <v>0.3736567712431906</v>
       </c>
       <c r="D14">
-        <v>0.07281686612689242</v>
+        <v>0.04069207227984606</v>
       </c>
       <c r="E14">
-        <v>0.03630509802024917</v>
+        <v>0.1174049806346802</v>
       </c>
       <c r="F14">
-        <v>0.7392507951088589</v>
+        <v>0.8326386139872142</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2212076065818138</v>
+        <v>0.2036734954947121</v>
       </c>
       <c r="M14">
-        <v>0.7156671284724965</v>
+        <v>0.3157968117782346</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.982745523372273</v>
+        <v>2.827309860172193</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.333562128016069</v>
+        <v>1.616832351879168</v>
       </c>
       <c r="C15">
-        <v>0.6888607050725852</v>
+        <v>0.3718330284405624</v>
       </c>
       <c r="D15">
-        <v>0.07222694942707619</v>
+        <v>0.04049320150195257</v>
       </c>
       <c r="E15">
-        <v>0.03656034331991609</v>
+        <v>0.1175543820454277</v>
       </c>
       <c r="F15">
-        <v>0.7331412506235466</v>
+        <v>0.8321563295279617</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2191020880305388</v>
+        <v>0.2032362341902569</v>
       </c>
       <c r="M15">
-        <v>0.7077115860883723</v>
+        <v>0.3135463336099491</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.969559865940454</v>
+        <v>2.827818862790622</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.055049748982924</v>
+        <v>1.534275023905366</v>
       </c>
       <c r="C16">
-        <v>0.6571701483175616</v>
+        <v>0.3613710802930825</v>
       </c>
       <c r="D16">
-        <v>0.06885170160444432</v>
+        <v>0.039352210797297</v>
       </c>
       <c r="E16">
-        <v>0.03805011019848192</v>
+        <v>0.1184253595077182</v>
       </c>
       <c r="F16">
-        <v>0.6988809538826644</v>
+        <v>0.8295921634482113</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2071314754756202</v>
+        <v>0.2007580363463575</v>
       </c>
       <c r="M16">
-        <v>0.6622710934663161</v>
+        <v>0.3006643063454746</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.89644780011659</v>
+        <v>2.831420192909405</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.884788487650439</v>
+        <v>1.483637578443791</v>
       </c>
       <c r="C17">
-        <v>0.637777902616989</v>
+        <v>0.3549435734134079</v>
       </c>
       <c r="D17">
-        <v>0.06678538880070306</v>
+        <v>0.03865107409946944</v>
       </c>
       <c r="E17">
-        <v>0.03898781948454555</v>
+        <v>0.1189729058223672</v>
       </c>
       <c r="F17">
-        <v>0.6785051773029807</v>
+        <v>0.828197007259007</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1998689484161673</v>
+        <v>0.1992623763262031</v>
       </c>
       <c r="M17">
-        <v>0.6345191130015024</v>
+        <v>0.2927747686860585</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.853692574284139</v>
+        <v>2.834239348906095</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.787058893244591</v>
+        <v>1.454515982280839</v>
       </c>
       <c r="C18">
-        <v>0.6266402278095597</v>
+        <v>0.3512432558491412</v>
       </c>
       <c r="D18">
-        <v>0.06559830175542203</v>
+        <v>0.03824737554735691</v>
       </c>
       <c r="E18">
-        <v>0.03953576708404005</v>
+        <v>0.1192927047498393</v>
       </c>
       <c r="F18">
-        <v>0.6670105214479207</v>
+        <v>0.8274598239411262</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1957200034404281</v>
+        <v>0.1984111782779934</v>
       </c>
       <c r="M18">
-        <v>0.6185990815720075</v>
+        <v>0.2882418274550957</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.829837119414435</v>
+        <v>2.836084622194306</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.754001943983155</v>
+        <v>1.444656596184245</v>
       </c>
       <c r="C19">
-        <v>0.6228718313861634</v>
+        <v>0.3499898184026904</v>
       </c>
       <c r="D19">
-        <v>0.06519659906363273</v>
+        <v>0.03811061830187157</v>
       </c>
       <c r="E19">
-        <v>0.03972275726015739</v>
+        <v>0.1194018189715029</v>
       </c>
       <c r="F19">
-        <v>0.6631562590648059</v>
+        <v>0.8272214280706862</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1943199571413032</v>
+        <v>0.1981245355892298</v>
       </c>
       <c r="M19">
-        <v>0.6132157536607821</v>
+        <v>0.2867079020250927</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.821883360397692</v>
+        <v>2.836747799293249</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.902891947776993</v>
+        <v>1.4890276466773</v>
       </c>
       <c r="C20">
-        <v>0.6398405222020358</v>
+        <v>0.3556281447869765</v>
       </c>
       <c r="D20">
-        <v>0.06700520241733443</v>
+        <v>0.0387257553048741</v>
       </c>
       <c r="E20">
-        <v>0.03888710537463058</v>
+        <v>0.1189141151613362</v>
       </c>
       <c r="F20">
-        <v>0.6806506910827181</v>
+        <v>0.8283387662841619</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2006390976112016</v>
+        <v>0.199420653883962</v>
       </c>
       <c r="M20">
-        <v>0.6374689166711462</v>
+        <v>0.2936141166913231</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.858166988472789</v>
+        <v>2.833916077721454</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.405669349689106</v>
+        <v>1.638149355285805</v>
       </c>
       <c r="C21">
-        <v>0.6970591605231675</v>
+        <v>0.3745311112121783</v>
       </c>
       <c r="D21">
-        <v>0.07309984811596593</v>
+        <v>0.04078741216056159</v>
       </c>
       <c r="E21">
-        <v>0.03618318479927618</v>
+        <v>0.117333600624101</v>
       </c>
       <c r="F21">
-        <v>0.7421941824327973</v>
+        <v>0.8328734168322001</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2222190021045094</v>
+        <v>0.203883661401008</v>
       </c>
       <c r="M21">
-        <v>0.7194848036454715</v>
+        <v>0.316876232090479</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.98911302444273</v>
+        <v>2.827077899255642</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.736467344841344</v>
+        <v>1.735631820369292</v>
       </c>
       <c r="C22">
-        <v>0.7346374177161294</v>
+        <v>0.3868533724960344</v>
       </c>
       <c r="D22">
-        <v>0.07709940186136066</v>
+        <v>0.04213086761872376</v>
       </c>
       <c r="E22">
-        <v>0.03449564438574904</v>
+        <v>0.11634390309103</v>
       </c>
       <c r="F22">
-        <v>0.7846580974727573</v>
+        <v>0.836420350245362</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.236607661400555</v>
+        <v>0.206880949371822</v>
       </c>
       <c r="M22">
-        <v>0.7735391486912775</v>
+        <v>0.3321215728849793</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.081999867531408</v>
+        <v>2.824608838518543</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.559691110277527</v>
+        <v>1.683602005027296</v>
       </c>
       <c r="C23">
-        <v>0.7145625464564205</v>
+        <v>0.3802797555388508</v>
       </c>
       <c r="D23">
-        <v>0.0749630701841042</v>
+        <v>0.04141421117680721</v>
       </c>
       <c r="E23">
-        <v>0.03538887773162824</v>
+        <v>0.1168681678770462</v>
       </c>
       <c r="F23">
-        <v>0.7617770734980809</v>
+        <v>0.8344738176604238</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.228900403154995</v>
+        <v>0.2052738921474884</v>
       </c>
       <c r="M23">
-        <v>0.7446440461594293</v>
+        <v>0.3239810600088546</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.031717771144798</v>
+        <v>2.825743255344719</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.894706892476449</v>
+        <v>1.486590826167173</v>
       </c>
       <c r="C24">
-        <v>0.6389079774551476</v>
+        <v>0.3553186658066068</v>
       </c>
       <c r="D24">
-        <v>0.06690582203256668</v>
+        <v>0.03869199381659882</v>
       </c>
       <c r="E24">
-        <v>0.0389326107030763</v>
+        <v>0.1189406788213578</v>
       </c>
       <c r="F24">
-        <v>0.6796800227140665</v>
+        <v>0.8282744748573094</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2002908313547636</v>
+        <v>0.1993490695703741</v>
       </c>
       <c r="M24">
-        <v>0.6361352023899727</v>
+        <v>0.2932346385362479</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.856141855392451</v>
+        <v>2.834061529383575</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.184861172820092</v>
+        <v>1.274230211854615</v>
       </c>
       <c r="C25">
-        <v>0.5579045174718544</v>
+        <v>0.3282656365030334</v>
       </c>
       <c r="D25">
-        <v>0.0582665152037336</v>
+        <v>0.0357395631526316</v>
       </c>
       <c r="E25">
-        <v>0.04308245480217454</v>
+        <v>0.1213622489075763</v>
       </c>
       <c r="F25">
-        <v>0.5996082842220787</v>
+        <v>0.824081728257994</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1704951743926983</v>
+        <v>0.1933049387016226</v>
       </c>
       <c r="M25">
-        <v>0.5206656882438168</v>
+        <v>0.2602582533825384</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.694534910847011</v>
+        <v>2.851584689225348</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_88/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_88/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.118015681109569</v>
+        <v>2.666481343168584</v>
       </c>
       <c r="C2">
-        <v>0.3082411197244141</v>
+        <v>0.4985867169203004</v>
       </c>
       <c r="D2">
-        <v>0.03355238475187861</v>
+        <v>0.05193035735026541</v>
       </c>
       <c r="E2">
-        <v>0.1233058829017842</v>
+        <v>0.04640529431568952</v>
       </c>
       <c r="F2">
-        <v>0.8231263785664211</v>
+        <v>0.5467869316382803</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1891530951563141</v>
+        <v>0.1493074072374299</v>
       </c>
       <c r="M2">
-        <v>0.2361424816765947</v>
+        <v>0.4366145817680191</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.871797905458948</v>
+        <v>1.595807192636755</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.012251070564901</v>
+        <v>2.316889970226157</v>
       </c>
       <c r="C3">
-        <v>0.2946074768429412</v>
+        <v>0.4585040455188221</v>
       </c>
       <c r="D3">
-        <v>0.03206211263224645</v>
+        <v>0.04764330063004962</v>
       </c>
       <c r="E3">
-        <v>0.124723630836637</v>
+        <v>0.04881743602872901</v>
       </c>
       <c r="F3">
-        <v>0.8238021451527047</v>
+        <v>0.5142922647792716</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1865257311867481</v>
+        <v>0.1353423124514848</v>
       </c>
       <c r="M3">
-        <v>0.2199033853709622</v>
+        <v>0.3800842211968245</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.890035906224853</v>
+        <v>1.539901605421534</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9473682001214456</v>
+        <v>2.102806115446583</v>
       </c>
       <c r="C4">
-        <v>0.2862065952481032</v>
+        <v>0.4339263167355512</v>
       </c>
       <c r="D4">
-        <v>0.0311432607357176</v>
+        <v>0.04501202424310691</v>
       </c>
       <c r="E4">
-        <v>0.125643821480906</v>
+        <v>0.050375497292382</v>
       </c>
       <c r="F4">
-        <v>0.8248677082826745</v>
+        <v>0.4958101894638034</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1850045961093016</v>
+        <v>0.1269396682835264</v>
       </c>
       <c r="M4">
-        <v>0.2099848639771196</v>
+        <v>0.3455359921618282</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.903466340057037</v>
+        <v>1.510505232469598</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9209436966755788</v>
+        <v>2.015670177869708</v>
       </c>
       <c r="C5">
-        <v>0.2827759353475017</v>
+        <v>0.4239158179190952</v>
       </c>
       <c r="D5">
-        <v>0.03076788752294846</v>
+        <v>0.04393969018920529</v>
       </c>
       <c r="E5">
-        <v>0.1260313135664947</v>
+        <v>0.05102948661982221</v>
       </c>
       <c r="F5">
-        <v>0.8254652868235866</v>
+        <v>0.4886259812920954</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1844079178932034</v>
+        <v>0.123555700988355</v>
       </c>
       <c r="M5">
-        <v>0.2059563668816935</v>
+        <v>0.3314910590624578</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.90949973733305</v>
+        <v>1.499696197379762</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9165569249604459</v>
+        <v>2.001206611860425</v>
       </c>
       <c r="C6">
-        <v>0.2822058475786093</v>
+        <v>0.4222538024176004</v>
       </c>
       <c r="D6">
-        <v>0.03070550149033835</v>
+        <v>0.04376161708605508</v>
       </c>
       <c r="E6">
-        <v>0.1260964120891777</v>
+        <v>0.05113922425813877</v>
       </c>
       <c r="F6">
-        <v>0.8255743728934988</v>
+        <v>0.4874534033155697</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1843102422320513</v>
+        <v>0.1229961360557965</v>
       </c>
       <c r="M6">
-        <v>0.2052882526239443</v>
+        <v>0.3291607537727188</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.9105353971635</v>
+        <v>1.497970083712659</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9470117641438947</v>
+        <v>2.101630592510276</v>
       </c>
       <c r="C7">
-        <v>0.2861603571142837</v>
+        <v>0.4337912949716838</v>
       </c>
       <c r="D7">
-        <v>0.03113820206615259</v>
+        <v>0.04499756304491598</v>
       </c>
       <c r="E7">
-        <v>0.1256489966780163</v>
+        <v>0.0503842404002659</v>
       </c>
       <c r="F7">
-        <v>0.824875106367891</v>
+        <v>0.4957119226516795</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1849964551176484</v>
+        <v>0.126893872165418</v>
       </c>
       <c r="M7">
-        <v>0.209930479787964</v>
+        <v>0.3453464494265717</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.903545440816259</v>
+        <v>1.510354808916276</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.081537041416539</v>
+        <v>2.545801175125007</v>
       </c>
       <c r="C8">
-        <v>0.3035465653591132</v>
+        <v>0.4847572929658099</v>
       </c>
       <c r="D8">
-        <v>0.03303934696928224</v>
+        <v>0.05045177326308448</v>
       </c>
       <c r="E8">
-        <v>0.123784417381288</v>
+        <v>0.04722083917240938</v>
       </c>
       <c r="F8">
-        <v>0.8232241865317249</v>
+        <v>0.5352639773775181</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1882280939913983</v>
+        <v>0.1444546436399605</v>
       </c>
       <c r="M8">
-        <v>0.2305325005613525</v>
+        <v>0.4170850627002309</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.877622509305354</v>
+        <v>1.575464775108884</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.345743109301338</v>
+        <v>3.423175338013607</v>
       </c>
       <c r="C9">
-        <v>0.3373952499985364</v>
+        <v>0.5851281128010726</v>
       </c>
       <c r="D9">
-        <v>0.03673620094449603</v>
+        <v>0.06117158615844431</v>
       </c>
       <c r="E9">
-        <v>0.1205216274595068</v>
+        <v>0.04164213526749905</v>
       </c>
       <c r="F9">
-        <v>0.8251620350377564</v>
+        <v>0.6255538646128116</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1952945804903692</v>
+        <v>0.1804048403161786</v>
       </c>
       <c r="M9">
-        <v>0.2713410357480726</v>
+        <v>0.5593869608952673</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.844543455190006</v>
+        <v>1.745594612642009</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.540053577822903</v>
+        <v>4.074506243356097</v>
       </c>
       <c r="C10">
-        <v>0.3621040387105836</v>
+        <v>0.6593852616824734</v>
       </c>
       <c r="D10">
-        <v>0.03943215737670869</v>
+        <v>0.06908768472455051</v>
       </c>
       <c r="E10">
-        <v>0.118363539648797</v>
+        <v>0.03794428661156535</v>
       </c>
       <c r="F10">
-        <v>0.8297602121856897</v>
+        <v>0.7012372336828605</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2009299290899378</v>
+        <v>0.2079641194724928</v>
       </c>
       <c r="M10">
-        <v>0.3015652178322341</v>
+        <v>0.6654437525394812</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.831128854499269</v>
+        <v>1.901428681267902</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.628484986013518</v>
+        <v>4.372968492332632</v>
       </c>
       <c r="C11">
-        <v>0.3733080582367734</v>
+        <v>0.6933414532408335</v>
       </c>
       <c r="D11">
-        <v>0.04065404735843003</v>
+        <v>0.07270403406007375</v>
       </c>
       <c r="E11">
-        <v>0.117433493432773</v>
+        <v>0.03635380299192181</v>
       </c>
       <c r="F11">
-        <v>0.8325456133071754</v>
+        <v>0.7380794755767681</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.203589771150817</v>
+        <v>0.220804587020794</v>
       </c>
       <c r="M11">
-        <v>0.3153663956591686</v>
+        <v>0.7141451805562724</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.827404545918114</v>
+        <v>1.980214286902935</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.661976073157291</v>
+        <v>4.486362280432502</v>
       </c>
       <c r="C12">
-        <v>0.3775453212936384</v>
+        <v>0.7062307489267994</v>
       </c>
       <c r="D12">
-        <v>0.04111607394087713</v>
+        <v>0.07407622099452738</v>
       </c>
       <c r="E12">
-        <v>0.1170887276306282</v>
+        <v>0.03576514388630447</v>
       </c>
       <c r="F12">
-        <v>0.8337004295917723</v>
+        <v>0.7524123287704185</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2046108018384984</v>
+        <v>0.225715448443367</v>
       </c>
       <c r="M12">
-        <v>0.3205998604776923</v>
+        <v>0.7326639402541986</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.826337285004115</v>
+        <v>2.011292386127963</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.654763012999013</v>
+        <v>4.461923303648518</v>
       </c>
       <c r="C13">
-        <v>0.3766329976444922</v>
+        <v>0.7034533450041636</v>
       </c>
       <c r="D13">
-        <v>0.04101659877743913</v>
+        <v>0.07378056404965605</v>
       </c>
       <c r="E13">
-        <v>0.1171626491358583</v>
+        <v>0.03589130899204107</v>
       </c>
       <c r="F13">
-        <v>0.8334472649934241</v>
+        <v>0.749307947017968</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2043902912210456</v>
+        <v>0.2246555709919278</v>
       </c>
       <c r="M13">
-        <v>0.3194724209483653</v>
+        <v>0.7286720016604278</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.826551863985969</v>
+        <v>2.004542028095756</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.631240245745175</v>
+        <v>4.382289633142079</v>
       </c>
       <c r="C14">
-        <v>0.3736567712431906</v>
+        <v>0.694401212446877</v>
       </c>
       <c r="D14">
-        <v>0.04069207227984606</v>
+        <v>0.07281686612689242</v>
       </c>
       <c r="E14">
-        <v>0.1174049806346802</v>
+        <v>0.03630509802025095</v>
       </c>
       <c r="F14">
-        <v>0.8326386139872142</v>
+        <v>0.7392507951088447</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2036734954947121</v>
+        <v>0.221207606581828</v>
       </c>
       <c r="M14">
-        <v>0.3157968117782346</v>
+        <v>0.7156671284724894</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.827309860172193</v>
+        <v>1.982745523372188</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.616832351879168</v>
+        <v>4.333562128016013</v>
       </c>
       <c r="C15">
-        <v>0.3718330284405624</v>
+        <v>0.6888607050726705</v>
       </c>
       <c r="D15">
-        <v>0.04049320150195257</v>
+        <v>0.07222694942707619</v>
       </c>
       <c r="E15">
-        <v>0.1175543820454277</v>
+        <v>0.03656034331990077</v>
       </c>
       <c r="F15">
-        <v>0.8321563295279617</v>
+        <v>0.7331412506235466</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2032362341902569</v>
+        <v>0.2191020880303682</v>
       </c>
       <c r="M15">
-        <v>0.3135463336099491</v>
+        <v>0.7077115860883865</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.827818862790622</v>
+        <v>1.969559865940454</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.534275023905366</v>
+        <v>4.055049748982753</v>
       </c>
       <c r="C16">
-        <v>0.3613710802930825</v>
+        <v>0.6571701483174479</v>
       </c>
       <c r="D16">
-        <v>0.039352210797297</v>
+        <v>0.06885170160438747</v>
       </c>
       <c r="E16">
-        <v>0.1184253595077182</v>
+        <v>0.03805011019846527</v>
       </c>
       <c r="F16">
-        <v>0.8295921634482113</v>
+        <v>0.6988809538826501</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2007580363463575</v>
+        <v>0.207131475475677</v>
       </c>
       <c r="M16">
-        <v>0.3006643063454746</v>
+        <v>0.6622710934663161</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.831420192909405</v>
+        <v>1.896447800116647</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.483637578443791</v>
+        <v>3.884788487650269</v>
       </c>
       <c r="C17">
-        <v>0.3549435734134079</v>
+        <v>0.6377779026167048</v>
       </c>
       <c r="D17">
-        <v>0.03865107409946944</v>
+        <v>0.06678538880052542</v>
       </c>
       <c r="E17">
-        <v>0.1189729058223672</v>
+        <v>0.03898781948454411</v>
       </c>
       <c r="F17">
-        <v>0.828197007259007</v>
+        <v>0.6785051773029807</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1992623763262031</v>
+        <v>0.1998689484162099</v>
       </c>
       <c r="M17">
-        <v>0.2927747686860585</v>
+        <v>0.6345191130014953</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.834239348906095</v>
+        <v>1.853692574284167</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.454515982280839</v>
+        <v>3.787058893244421</v>
       </c>
       <c r="C18">
-        <v>0.3512432558491412</v>
+        <v>0.6266402278091903</v>
       </c>
       <c r="D18">
-        <v>0.03824737554735691</v>
+        <v>0.06559830175542913</v>
       </c>
       <c r="E18">
-        <v>0.1192927047498393</v>
+        <v>0.0395357670840133</v>
       </c>
       <c r="F18">
-        <v>0.8274598239411262</v>
+        <v>0.6670105214478923</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1984111782779934</v>
+        <v>0.1957200034402717</v>
       </c>
       <c r="M18">
-        <v>0.2882418274550957</v>
+        <v>0.6185990815719862</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.836084622194306</v>
+        <v>1.829837119414435</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.444656596184245</v>
+        <v>3.754001943983155</v>
       </c>
       <c r="C19">
-        <v>0.3499898184026904</v>
+        <v>0.622871831386135</v>
       </c>
       <c r="D19">
-        <v>0.03811061830187157</v>
+        <v>0.06519659906357589</v>
       </c>
       <c r="E19">
-        <v>0.1194018189715029</v>
+        <v>0.03972275726014129</v>
       </c>
       <c r="F19">
-        <v>0.8272214280706862</v>
+        <v>0.6631562590648059</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1981245355892298</v>
+        <v>0.194319957141289</v>
       </c>
       <c r="M19">
-        <v>0.2867079020250927</v>
+        <v>0.6132157536607892</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.836747799293249</v>
+        <v>1.82188336039772</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.4890276466773</v>
+        <v>3.90289194777705</v>
       </c>
       <c r="C20">
-        <v>0.3556281447869765</v>
+        <v>0.6398405222022632</v>
       </c>
       <c r="D20">
-        <v>0.0387257553048741</v>
+        <v>0.06700520241736996</v>
       </c>
       <c r="E20">
-        <v>0.1189141151613362</v>
+        <v>0.03888710537461426</v>
       </c>
       <c r="F20">
-        <v>0.8283387662841619</v>
+        <v>0.6806506910827324</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.199420653883962</v>
+        <v>0.2006390976113011</v>
       </c>
       <c r="M20">
-        <v>0.2936141166913231</v>
+        <v>0.6374689166711462</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.833916077721454</v>
+        <v>1.858166988472732</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.638149355285805</v>
+        <v>4.405669349689106</v>
       </c>
       <c r="C21">
-        <v>0.3745311112121783</v>
+        <v>0.6970591605235938</v>
       </c>
       <c r="D21">
-        <v>0.04078741216056159</v>
+        <v>0.07309984811573145</v>
       </c>
       <c r="E21">
-        <v>0.117333600624101</v>
+        <v>0.03618318479929084</v>
       </c>
       <c r="F21">
-        <v>0.8328734168322001</v>
+        <v>0.7421941824327973</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.203883661401008</v>
+        <v>0.2222190021044383</v>
       </c>
       <c r="M21">
-        <v>0.316876232090479</v>
+        <v>0.7194848036454928</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.827077899255642</v>
+        <v>1.989113024442702</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.735631820369292</v>
+        <v>4.73646734484123</v>
       </c>
       <c r="C22">
-        <v>0.3868533724960344</v>
+        <v>0.7346374177159305</v>
       </c>
       <c r="D22">
-        <v>0.04213086761872376</v>
+        <v>0.07709940186113329</v>
       </c>
       <c r="E22">
-        <v>0.11634390309103</v>
+        <v>0.03449564438575081</v>
       </c>
       <c r="F22">
-        <v>0.836420350245362</v>
+        <v>0.7846580974727573</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.206880949371822</v>
+        <v>0.2366076614006403</v>
       </c>
       <c r="M22">
-        <v>0.3321215728849793</v>
+        <v>0.7735391486913201</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.824608838518543</v>
+        <v>2.081999867531437</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.683602005027296</v>
+        <v>4.559691110277868</v>
       </c>
       <c r="C23">
-        <v>0.3802797555388508</v>
+        <v>0.7145625464563921</v>
       </c>
       <c r="D23">
-        <v>0.04141421117680721</v>
+        <v>0.07496307018438131</v>
       </c>
       <c r="E23">
-        <v>0.1168681678770462</v>
+        <v>0.03538887773162847</v>
       </c>
       <c r="F23">
-        <v>0.8344738176604238</v>
+        <v>0.7617770734980951</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2052738921474884</v>
+        <v>0.2289004031549382</v>
       </c>
       <c r="M23">
-        <v>0.3239810600088546</v>
+        <v>0.7446440461594293</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.825743255344719</v>
+        <v>2.031717771144798</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.486590826167173</v>
+        <v>3.894706892476393</v>
       </c>
       <c r="C24">
-        <v>0.3553186658066068</v>
+        <v>0.6389079774551192</v>
       </c>
       <c r="D24">
-        <v>0.03869199381659882</v>
+        <v>0.0669058220323393</v>
       </c>
       <c r="E24">
-        <v>0.1189406788213578</v>
+        <v>0.03893261070304899</v>
       </c>
       <c r="F24">
-        <v>0.8282744748573094</v>
+        <v>0.6796800227140665</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1993490695703741</v>
+        <v>0.2002908313547209</v>
       </c>
       <c r="M24">
-        <v>0.2932346385362479</v>
+        <v>0.6361352023899656</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.834061529383575</v>
+        <v>1.856141855392394</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.274230211854615</v>
+        <v>3.184861172819808</v>
       </c>
       <c r="C25">
-        <v>0.3282656365030334</v>
+        <v>0.5579045174719113</v>
       </c>
       <c r="D25">
-        <v>0.0357395631526316</v>
+        <v>0.05826651520361992</v>
       </c>
       <c r="E25">
-        <v>0.1213622489075763</v>
+        <v>0.04308245480221373</v>
       </c>
       <c r="F25">
-        <v>0.824081728257994</v>
+        <v>0.5996082842220787</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1933049387016226</v>
+        <v>0.1704951743926912</v>
       </c>
       <c r="M25">
-        <v>0.2602582533825384</v>
+        <v>0.5206656882438097</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.851584689225348</v>
+        <v>1.694534910847011</v>
       </c>
     </row>
   </sheetData>
